--- a/output/CodeSystem-running-metrics-cs.xlsx
+++ b/output/CodeSystem-running-metrics-cs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>Property</t>
   </si>
@@ -138,7 +138,7 @@
     <t>Count</t>
   </si>
   <si>
-    <t>27</t>
+    <t>28</t>
   </si>
   <si>
     <t>Level</t>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>Vertical oscillation relative to stride length</t>
+  </si>
+  <si>
+    <t>cadence</t>
+  </si>
+  <si>
+    <t>Running Cadence</t>
+  </si>
+  <si>
+    <t>Steps per minute during running</t>
   </si>
   <si>
     <t>stride</t>
@@ -749,7 +758,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1147,6 +1156,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
